--- a/docs/WorkingStatus.xlsx
+++ b/docs/WorkingStatus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kitoh\source\aliceconv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kitoh\source\aliceconv\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765F585C-5D99-489D-9001-66D2DB490894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ACB9B4-FFFF-4B74-AE32-34143F40ADEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="23010" windowHeight="14400" activeTab="1" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="23010" windowHeight="14400" activeTab="1" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
   </bookViews>
   <sheets>
     <sheet name="CG" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="98">
   <si>
     <t>リトルプリンセス</t>
   </si>
@@ -479,10 +479,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,10 +948,10 @@
       <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" t="s">
         <v>56</v>
       </c>
@@ -969,10 +969,10 @@
       <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" t="s">
         <v>56</v>
       </c>
@@ -1004,10 +1004,10 @@
       <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="4"/>
       <c r="G15" t="s">
         <v>58</v>
       </c>
@@ -1025,10 +1025,10 @@
       <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="4"/>
       <c r="G16" t="s">
         <v>59</v>
       </c>
@@ -1046,10 +1046,10 @@
       <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="E17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="4"/>
       <c r="G17" t="s">
         <v>56</v>
       </c>
@@ -1061,10 +1061,10 @@
       <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="4"/>
       <c r="G18" t="s">
         <v>56</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D19" t="s">
@@ -1099,7 +1099,7 @@
       <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="4"/>
       <c r="E20" t="s">
         <v>56</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="E33" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="E34" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
@@ -1611,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8125B7-A0B0-4490-A0D0-BEF54767802B}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1735,7 +1735,7 @@
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
       <c r="F12" t="s">
         <v>96</v>
       </c>
@@ -1747,8 +1747,8 @@
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="I13" t="s">
         <v>96</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
       <c r="F15" t="s">
         <v>96</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="3"/>
       <c r="F16" t="s">
         <v>96</v>
       </c>
@@ -1789,7 +1789,7 @@
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="3"/>
       <c r="F17" t="s">
         <v>96</v>
       </c>
@@ -1801,7 +1801,7 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="3"/>
       <c r="F18" t="s">
         <v>96</v>
       </c>
@@ -1813,7 +1813,7 @@
       <c r="B19" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>96</v>
       </c>
       <c r="F19" t="s">
@@ -1830,7 +1830,7 @@
       <c r="B20" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="4"/>
       <c r="F20" t="s">
         <v>69</v>
       </c>
@@ -1881,6 +1881,15 @@
       <c r="A24" t="s">
         <v>13</v>
       </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
@@ -1922,6 +1931,15 @@
       <c r="A28" t="s">
         <v>17</v>
       </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
@@ -1980,7 +1998,7 @@
       <c r="E33" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1994,7 +2012,7 @@
       <c r="E34" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">

--- a/docs/WorkingStatus.xlsx
+++ b/docs/WorkingStatus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kitoh\source\aliceconv\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kitoh\Documents\AliceConv\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ACB9B4-FFFF-4B74-AE32-34143F40ADEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2751BCBF-85F4-494D-A9EC-700B398902E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="23010" windowHeight="14400" activeTab="1" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
+    <workbookView xWindow="1920" yWindow="1335" windowWidth="21330" windowHeight="15900" activeTab="1" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
   </bookViews>
   <sheets>
     <sheet name="CG" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="100">
   <si>
     <t>リトルプリンセス</t>
   </si>
@@ -408,6 +408,14 @@
   </si>
   <si>
     <t>〇 (update MAKO2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇 (EOMML)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇 (PSG)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1611,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8125B7-A0B0-4490-A0D0-BEF54767802B}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1735,7 +1743,15 @@
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
       <c r="F12" t="s">
         <v>96</v>
       </c>
@@ -1757,6 +1773,9 @@
       <c r="A14" t="s">
         <v>5</v>
       </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
       <c r="G14" t="s">
         <v>96</v>
       </c>
@@ -1765,7 +1784,15 @@
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
       <c r="F15" t="s">
         <v>96</v>
       </c>
@@ -1777,7 +1804,15 @@
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
       <c r="F16" t="s">
         <v>96</v>
       </c>
@@ -1789,7 +1824,15 @@
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
       <c r="F17" t="s">
         <v>96</v>
       </c>
@@ -1801,7 +1844,12 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
       <c r="F18" t="s">
         <v>96</v>
       </c>
@@ -1816,6 +1864,12 @@
       <c r="C19" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
       <c r="F19" t="s">
         <v>69</v>
       </c>
@@ -1831,6 +1885,9 @@
         <v>96</v>
       </c>
       <c r="C20" s="4"/>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
       <c r="F20" t="s">
         <v>69</v>
       </c>
@@ -1845,6 +1902,12 @@
       <c r="B21" t="s">
         <v>96</v>
       </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
       <c r="F21" t="s">
         <v>96</v>
       </c>
@@ -1859,6 +1922,9 @@
       <c r="B22" t="s">
         <v>96</v>
       </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
       <c r="G22" t="s">
         <v>96</v>
       </c>
@@ -1873,6 +1939,9 @@
       <c r="B23" t="s">
         <v>96</v>
       </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
       <c r="G23" t="s">
         <v>96</v>
       </c>
@@ -1884,6 +1953,12 @@
       <c r="B24" t="s">
         <v>96</v>
       </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
       <c r="F24" t="s">
         <v>96</v>
       </c>
@@ -1895,6 +1970,9 @@
       <c r="A25" t="s">
         <v>14</v>
       </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
       <c r="G25" t="s">
         <v>96</v>
       </c>
@@ -1933,6 +2011,12 @@
       </c>
       <c r="B28" t="s">
         <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
       </c>
       <c r="F28" t="s">
         <v>96</v>

--- a/docs/WorkingStatus.xlsx
+++ b/docs/WorkingStatus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kitoh\Documents\AliceConv\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kitoh\source\aliceconv\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2751BCBF-85F4-494D-A9EC-700B398902E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D87967-9BAE-48C0-8A00-E041049E2433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1335" windowWidth="21330" windowHeight="15900" activeTab="1" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
   </bookViews>
   <sheets>
     <sheet name="CG" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="101">
   <si>
     <t>リトルプリンセス</t>
   </si>
@@ -416,6 +416,10 @@
   </si>
   <si>
     <t>〇 (PSG)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇 (PC88MML)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1619,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8125B7-A0B0-4490-A0D0-BEF54767802B}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1730,6 +1734,9 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -1746,6 +1753,9 @@
       <c r="B12" t="s">
         <v>98</v>
       </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
       <c r="D12" t="s">
         <v>99</v>
       </c>
@@ -1773,6 +1783,9 @@
       <c r="A14" t="s">
         <v>5</v>
       </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
       <c r="D14" t="s">
         <v>99</v>
       </c>
@@ -1807,6 +1820,9 @@
       <c r="B16" t="s">
         <v>98</v>
       </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
       <c r="D16" t="s">
         <v>99</v>
       </c>
@@ -1826,6 +1842,9 @@
       </c>
       <c r="B17" t="s">
         <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
       </c>
       <c r="D17" t="s">
         <v>99</v>

--- a/docs/WorkingStatus.xlsx
+++ b/docs/WorkingStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kitoh\source\aliceconv\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D87967-9BAE-48C0-8A00-E041049E2433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DB08A8-8472-4602-8250-12B5DF605C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="102">
   <si>
     <t>リトルプリンセス</t>
   </si>
@@ -420,6 +420,10 @@
   </si>
   <si>
     <t>〇 (PC88MML)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇 (MCL)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1624,7 +1628,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1737,13 +1741,16 @@
       <c r="C10" t="s">
         <v>100</v>
       </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">

--- a/docs/WorkingStatus.xlsx
+++ b/docs/WorkingStatus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kitoh\source\aliceconv\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DB08A8-8472-4602-8250-12B5DF605C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998AB586-2A3D-46F1-BE90-FDBF2AF2E647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
+    <workbookView xWindow="4065" yWindow="2385" windowWidth="23790" windowHeight="14565" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
   </bookViews>
   <sheets>
     <sheet name="CG" sheetId="1" r:id="rId1"/>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1476BDDC-5CB6-4D7B-9A86-4CEE1B77D7D6}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1102,7 +1102,7 @@
         <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
         <v>56</v>
@@ -1627,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8125B7-A0B0-4490-A0D0-BEF54767802B}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/docs/WorkingStatus.xlsx
+++ b/docs/WorkingStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kitoh\source\aliceconv\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998AB586-2A3D-46F1-BE90-FDBF2AF2E647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A6CC01-3569-44AE-AFE6-042F0A5253DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="2385" windowWidth="23790" windowHeight="14565" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
+    <workbookView xWindow="4065" yWindow="2385" windowWidth="23790" windowHeight="14565" activeTab="1" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
   </bookViews>
   <sheets>
     <sheet name="CG" sheetId="1" r:id="rId1"/>
@@ -816,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1476BDDC-5CB6-4D7B-9A86-4CEE1B77D7D6}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -1627,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8125B7-A0B0-4490-A0D0-BEF54767802B}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1897,7 +1897,7 @@
         <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
         <v>96</v>

--- a/docs/WorkingStatus.xlsx
+++ b/docs/WorkingStatus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kitoh\source\aliceconv\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\aliceconv\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A6CC01-3569-44AE-AFE6-042F0A5253DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A47FBF-9135-49C0-8205-113DCF8F9536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="2385" windowWidth="23790" windowHeight="14565" activeTab="1" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
+    <workbookView xWindow="1575" yWindow="450" windowWidth="27105" windowHeight="17175" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
   </bookViews>
   <sheets>
     <sheet name="CG" sheetId="1" r:id="rId1"/>
@@ -232,10 +232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>× (under analysis)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AliceConv working chart</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -424,6 +420,10 @@
   </si>
   <si>
     <t>〇 (MCL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△ (partially palette support)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -484,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -493,9 +493,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1476BDDC-5CB6-4D7B-9A86-4CEE1B77D7D6}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -830,32 +827,32 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -863,26 +860,26 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
         <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -903,19 +900,19 @@
         <v>54</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
@@ -948,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -964,10 +961,10 @@
       <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" t="s">
         <v>56</v>
       </c>
@@ -985,10 +982,10 @@
       <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" t="s">
         <v>56</v>
       </c>
@@ -1020,10 +1017,10 @@
       <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" t="s">
         <v>58</v>
       </c>
@@ -1041,10 +1038,10 @@
       <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="3"/>
       <c r="G16" t="s">
         <v>59</v>
       </c>
@@ -1062,10 +1059,10 @@
       <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="3"/>
       <c r="G17" t="s">
         <v>56</v>
       </c>
@@ -1077,10 +1074,10 @@
       <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" t="s">
         <v>56</v>
       </c>
@@ -1092,7 +1089,7 @@
       <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D19" t="s">
@@ -1115,15 +1112,15 @@
       <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
       <c r="E20" t="s">
         <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1143,7 +1140,7 @@
         <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1157,7 +1154,7 @@
         <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
         <v>56</v>
@@ -1171,7 +1168,7 @@
         <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
         <v>56</v>
@@ -1316,7 +1313,7 @@
       <c r="E33" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1330,7 +1327,7 @@
       <c r="E34" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
@@ -1357,7 +1354,7 @@
         <v>55</v>
       </c>
       <c r="H36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -1382,7 +1379,7 @@
         <v>56</v>
       </c>
       <c r="H38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -1393,7 +1390,7 @@
         <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
         <v>55</v>
@@ -1435,7 +1432,7 @@
         <v>55</v>
       </c>
       <c r="H42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -1452,7 +1449,7 @@
         <v>55</v>
       </c>
       <c r="H43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -1463,7 +1460,7 @@
         <v>55</v>
       </c>
       <c r="H44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -1474,7 +1471,7 @@
         <v>55</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -1485,7 +1482,7 @@
         <v>55</v>
       </c>
       <c r="H46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -1496,7 +1493,7 @@
         <v>55</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
@@ -1518,7 +1515,7 @@
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
@@ -1529,7 +1526,7 @@
         <v>55</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
@@ -1540,7 +1537,7 @@
         <v>55</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
@@ -1551,7 +1548,7 @@
         <v>55</v>
       </c>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
@@ -1559,7 +1556,7 @@
         <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
@@ -1570,7 +1567,7 @@
         <v>55</v>
       </c>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
@@ -1589,7 +1586,7 @@
         <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
@@ -1627,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8125B7-A0B0-4490-A0D0-BEF54767802B}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -1641,32 +1638,32 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1674,26 +1671,26 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
         <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -1714,19 +1711,19 @@
         <v>54</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
@@ -1739,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
         <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -1750,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -1758,32 +1755,30 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
         <v>98</v>
       </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
@@ -1791,13 +1786,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
@@ -1805,19 +1800,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
         <v>98</v>
       </c>
-      <c r="D15" t="s">
-        <v>99</v>
-      </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
@@ -1825,22 +1820,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
         <v>98</v>
       </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>99</v>
-      </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1848,22 +1843,22 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
         <v>98</v>
       </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
-      </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1871,13 +1866,13 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -1885,22 +1880,22 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -1908,17 +1903,17 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -1926,19 +1921,19 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -1946,16 +1941,16 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" t="s">
         <v>96</v>
-      </c>
-      <c r="E22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -1963,13 +1958,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -1977,19 +1972,19 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
@@ -1997,10 +1992,10 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -2008,13 +2003,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -2022,13 +2017,13 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -2036,19 +2031,19 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -2056,13 +2051,13 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -2070,10 +2065,10 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -2081,13 +2076,13 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -2095,7 +2090,7 @@
         <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
@@ -2103,13 +2098,13 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
@@ -2117,22 +2112,22 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
@@ -2140,16 +2135,16 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
@@ -2162,16 +2157,16 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
@@ -2179,13 +2174,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
@@ -2193,10 +2188,10 @@
         <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
@@ -2204,10 +2199,10 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
@@ -2215,16 +2210,16 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
@@ -2232,16 +2227,16 @@
         <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
@@ -2249,10 +2244,10 @@
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
@@ -2260,10 +2255,10 @@
         <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
@@ -2271,10 +2266,10 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
@@ -2282,10 +2277,10 @@
         <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
@@ -2293,7 +2288,7 @@
         <v>38</v>
       </c>
       <c r="J48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
@@ -2301,10 +2296,10 @@
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
@@ -2312,10 +2307,10 @@
         <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
@@ -2323,10 +2318,10 @@
         <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
@@ -2334,10 +2329,10 @@
         <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
@@ -2345,7 +2340,7 @@
         <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
@@ -2353,13 +2348,13 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
@@ -2372,10 +2367,10 @@
         <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
@@ -2383,13 +2378,13 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/docs/WorkingStatus.xlsx
+++ b/docs/WorkingStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\aliceconv\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A47FBF-9135-49C0-8205-113DCF8F9536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDB941F-B392-4628-93DF-92DA045E61C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1575" yWindow="450" windowWidth="27105" windowHeight="17175" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="101">
   <si>
     <t>リトルプリンセス</t>
   </si>
@@ -420,10 +420,6 @@
   </si>
   <si>
     <t>〇 (MCL)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△ (partially palette support)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -814,7 +810,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -945,7 +941,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">

--- a/docs/WorkingStatus.xlsx
+++ b/docs/WorkingStatus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\aliceconv\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kitoh\source\repos\aliceconv\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDB941F-B392-4628-93DF-92DA045E61C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96A4D37-764A-4D4D-AAAB-7FD8467AC29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="450" windowWidth="27105" windowHeight="17175" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
+    <workbookView xWindow="1965" yWindow="945" windowWidth="24600" windowHeight="16335" activeTab="1" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
   </bookViews>
   <sheets>
     <sheet name="CG" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="100">
   <si>
     <t>リトルプリンセス</t>
   </si>
@@ -249,10 +249,6 @@
   </si>
   <si>
     <t>Partially works.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△ (Splite data support needed)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -480,7 +476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -492,6 +488,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1476BDDC-5CB6-4D7B-9A86-4CEE1B77D7D6}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -828,7 +827,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -837,7 +836,7 @@
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -848,7 +847,7 @@
         <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -859,23 +858,23 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
         <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -896,19 +895,19 @@
         <v>54</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
@@ -1085,7 +1084,7 @@
       <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D19" t="s">
@@ -1108,15 +1107,15 @@
       <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="4"/>
       <c r="E20" t="s">
         <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1136,7 +1135,7 @@
         <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1150,7 +1149,7 @@
         <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
         <v>56</v>
@@ -1164,7 +1163,7 @@
         <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
         <v>56</v>
@@ -1309,7 +1308,7 @@
       <c r="E33" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1323,7 +1322,7 @@
       <c r="E34" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
@@ -1350,7 +1349,7 @@
         <v>55</v>
       </c>
       <c r="H36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -1375,7 +1374,7 @@
         <v>56</v>
       </c>
       <c r="H38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -1386,7 +1385,7 @@
         <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G39" t="s">
         <v>55</v>
@@ -1428,7 +1427,7 @@
         <v>55</v>
       </c>
       <c r="H42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -1445,7 +1444,7 @@
         <v>55</v>
       </c>
       <c r="H43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -1456,7 +1455,7 @@
         <v>55</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -1467,7 +1466,7 @@
         <v>55</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -1478,7 +1477,7 @@
         <v>55</v>
       </c>
       <c r="H46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -1489,7 +1488,7 @@
         <v>55</v>
       </c>
       <c r="H47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
@@ -1511,7 +1510,7 @@
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
@@ -1522,7 +1521,7 @@
         <v>55</v>
       </c>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
@@ -1533,7 +1532,7 @@
         <v>55</v>
       </c>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
@@ -1544,7 +1543,7 @@
         <v>55</v>
       </c>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
@@ -1552,7 +1551,7 @@
         <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
@@ -1563,7 +1562,7 @@
         <v>55</v>
       </c>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
@@ -1582,7 +1581,7 @@
         <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
@@ -1620,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8125B7-A0B0-4490-A0D0-BEF54767802B}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1639,7 +1638,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -1648,7 +1647,7 @@
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -1659,7 +1658,7 @@
         <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1670,23 +1669,23 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
         <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -1707,19 +1706,19 @@
         <v>54</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
@@ -1732,10 +1731,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
         <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -1743,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -1751,22 +1750,22 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
         <v>97</v>
       </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
@@ -1774,7 +1773,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
@@ -1782,13 +1781,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
@@ -1796,19 +1795,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
         <v>97</v>
       </c>
-      <c r="D15" t="s">
-        <v>98</v>
-      </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
@@ -1816,22 +1815,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
         <v>97</v>
       </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1839,22 +1838,22 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1862,13 +1861,13 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -1876,22 +1875,22 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -1899,17 +1898,17 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -1917,19 +1916,19 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -1937,16 +1936,16 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" t="s">
         <v>95</v>
-      </c>
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -1954,13 +1953,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -1968,19 +1967,19 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
@@ -1988,10 +1987,10 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -1999,13 +1998,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -2013,13 +2012,13 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -2027,19 +2026,19 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -2047,13 +2046,13 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -2061,10 +2060,10 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -2072,13 +2071,13 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -2086,7 +2085,7 @@
         <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
@@ -2094,13 +2093,13 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
@@ -2108,22 +2107,22 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
@@ -2131,16 +2130,16 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
@@ -2153,16 +2152,16 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
@@ -2170,13 +2169,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
@@ -2184,10 +2183,10 @@
         <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
@@ -2195,10 +2194,10 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
@@ -2206,16 +2205,16 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
@@ -2223,16 +2222,16 @@
         <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
@@ -2240,10 +2239,10 @@
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
@@ -2251,10 +2250,10 @@
         <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
@@ -2262,10 +2261,10 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
@@ -2273,10 +2272,10 @@
         <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
@@ -2284,7 +2283,7 @@
         <v>38</v>
       </c>
       <c r="J48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
@@ -2292,10 +2291,10 @@
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
@@ -2303,10 +2302,10 @@
         <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
@@ -2314,10 +2313,10 @@
         <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
@@ -2325,10 +2324,10 @@
         <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
@@ -2336,7 +2335,7 @@
         <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
@@ -2344,13 +2343,13 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
@@ -2363,10 +2362,10 @@
         <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
@@ -2374,13 +2373,13 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/docs/WorkingStatus.xlsx
+++ b/docs/WorkingStatus.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kitoh\source\repos\aliceconv\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96A4D37-764A-4D4D-AAAB-7FD8467AC29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303D676E-6DB0-4093-9C0B-D7FDF1DE3475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="945" windowWidth="24600" windowHeight="16335" activeTab="1" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{FF061521-1F21-4413-9E31-090A18910087}"/>
   </bookViews>
   <sheets>
     <sheet name="CG" sheetId="1" r:id="rId1"/>
     <sheet name="Sound" sheetId="2" r:id="rId2"/>
+    <sheet name="Scenario" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="101">
   <si>
     <t>リトルプリンセス</t>
   </si>
@@ -416,6 +417,10 @@
   </si>
   <si>
     <t>〇 (MCL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scenario</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -487,10 +492,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,10 +961,10 @@
       <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" t="s">
         <v>56</v>
       </c>
@@ -977,10 +982,10 @@
       <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" t="s">
         <v>56</v>
       </c>
@@ -1012,10 +1017,10 @@
       <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="4"/>
       <c r="G15" t="s">
         <v>58</v>
       </c>
@@ -1033,10 +1038,10 @@
       <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="4"/>
       <c r="G16" t="s">
         <v>59</v>
       </c>
@@ -1054,10 +1059,10 @@
       <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="E17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="4"/>
       <c r="G17" t="s">
         <v>56</v>
       </c>
@@ -1069,10 +1074,10 @@
       <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="4"/>
       <c r="G18" t="s">
         <v>56</v>
       </c>
@@ -1084,7 +1089,7 @@
       <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D19" t="s">
@@ -1107,7 +1112,7 @@
       <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
       <c r="E20" t="s">
         <v>56</v>
       </c>
@@ -1308,7 +1313,7 @@
       <c r="E33" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1322,7 +1327,7 @@
       <c r="E34" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
@@ -1619,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8125B7-A0B0-4490-A0D0-BEF54767802B}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L57" sqref="A1:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1877,7 +1882,7 @@
       <c r="B19" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D19" t="s">
@@ -1900,7 +1905,7 @@
       <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
       <c r="E20" t="s">
         <v>96</v>
       </c>
@@ -2098,7 +2103,7 @@
       <c r="E33" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2112,7 +2117,7 @@
       <c r="E34" t="s">
         <v>86</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
@@ -2380,6 +2385,378 @@
       </c>
       <c r="L57" t="s">
         <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G33:G34"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42696DDD-9955-4569-87FB-5C3937DD1FF3}">
+  <dimension ref="A1:L57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="48.875" customWidth="1"/>
+    <col min="2" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
